--- a/Crawling/crawling_data/day_genie/day_genie_20220116.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>날짜</t>
   </si>
@@ -154,8 +154,7 @@
     <t>라일락</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>고백</t>
@@ -221,8 +220,7 @@
     <t>롤린 (Rollin')</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -604,9 +602,6 @@
   </si>
   <si>
     <t>그 해 우리는 OST Part.5</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>세 번째 '고백'</t>
@@ -1790,7 +1785,7 @@
         <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1807,7 +1802,7 @@
         <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1824,7 +1819,7 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1858,7 +1853,7 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1875,7 +1870,7 @@
         <v>135</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1892,7 +1887,7 @@
         <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1909,7 +1904,7 @@
         <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1926,7 +1921,7 @@
         <v>141</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1960,7 +1955,7 @@
         <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1977,7 +1972,7 @@
         <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1994,7 +1989,7 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2045,7 +2040,7 @@
         <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2062,7 +2057,7 @@
         <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2079,7 +2074,7 @@
         <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2096,7 +2091,7 @@
         <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2113,7 +2108,7 @@
         <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2147,7 +2142,7 @@
         <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2164,7 +2159,7 @@
         <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2181,7 +2176,7 @@
         <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2198,7 +2193,7 @@
         <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2215,7 +2210,7 @@
         <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2232,7 +2227,7 @@
         <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2266,7 +2261,7 @@
         <v>148</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2283,7 +2278,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2300,7 +2295,7 @@
         <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2334,7 +2329,7 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2368,7 +2363,7 @@
         <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2385,7 +2380,7 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2402,7 +2397,7 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2470,7 +2465,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2487,7 +2482,7 @@
         <v>161</v>
       </c>
       <c r="E83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2538,7 +2533,7 @@
         <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2640,7 +2635,7 @@
         <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2657,7 +2652,7 @@
         <v>169</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2674,7 +2669,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2691,7 +2686,7 @@
         <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2708,7 +2703,7 @@
         <v>171</v>
       </c>
       <c r="E96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2793,7 +2788,7 @@
         <v>174</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
